--- a/uni12.xlsx
+++ b/uni12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ow200\Desktop\单词\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99A2275-C207-4C43-A168-2ACC16C2C0E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AFA846-F437-4165-85E7-E51DD6AB2843}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,7 +648,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E35:E36"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -880,11 +880,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
